--- a/data/results/quantile/Test_output_10.xlsx
+++ b/data/results/quantile/Test_output_10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2911,7 +2911,7 @@
         <v>0.1729605196396272</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4788263511772521</v>
+        <v>0.478807758609723</v>
       </c>
       <c r="D108" t="n">
         <v>0.9004958330664748</v>
@@ -2934,7 +2934,7 @@
         <v>0.4912812321556751</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7181021294894117</v>
+        <v>0.7201833220755023</v>
       </c>
       <c r="D109" t="n">
         <v>0.9006234906497808</v>
@@ -2954,22 +2954,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5332767952760089</v>
+        <v>0.5583279979221976</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4405142761156861</v>
+        <v>0.4408031886350019</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3208375721708434</v>
+        <v>0.3560435613012193</v>
       </c>
       <c r="E110" t="n">
         <v>0.41194456741871</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6411764745916702</v>
+        <v>0.6332251801326266</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3701950051918818</v>
+        <v>0.3940833597927382</v>
       </c>
     </row>
     <row r="111">
@@ -2977,22 +2977,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5978802507971638</v>
+        <v>0.6812102797834895</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2400866825316606</v>
+        <v>0.2384077046144994</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3661512699709407</v>
+        <v>0.4693252542978923</v>
       </c>
       <c r="E111" t="n">
         <v>0.4778947270007299</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5031236262834582</v>
+        <v>0.5040858379136848</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7041221654956218</v>
+        <v>0.5940493297049598</v>
       </c>
     </row>
     <row r="112">
@@ -3000,22 +3000,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5417889961974205</v>
+        <v>0.6042778468808701</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3766098571861171</v>
+        <v>0.37634608938887</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2755584088329079</v>
+        <v>0.2959032301496294</v>
       </c>
       <c r="E112" t="n">
         <v>0.5822621148469829</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4739379914100993</v>
+        <v>0.4777584905035956</v>
       </c>
       <c r="G112" t="n">
-        <v>0.451031788692018</v>
+        <v>0.4416728615010727</v>
       </c>
     </row>
     <row r="113">
@@ -3023,22 +3023,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5412512445479041</v>
+        <v>0.5682415136579488</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4818732530455315</v>
+        <v>0.4824488179386643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4223568437668204</v>
+        <v>0.4802914071004891</v>
       </c>
       <c r="E113" t="n">
         <v>0.3107974084094954</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4964582200417398</v>
+        <v>0.4996437873589962</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4323060718240527</v>
+        <v>0.4754828449796356</v>
       </c>
     </row>
     <row r="114">
@@ -3046,22 +3046,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5278097911600623</v>
+        <v>0.51258566627518</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6565047510829414</v>
+        <v>0.6580681090438527</v>
       </c>
       <c r="D114" t="n">
-        <v>0.366284056649087</v>
+        <v>0.3695034683670143</v>
       </c>
       <c r="E114" t="n">
         <v>0.8789615239620603</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6314997977032262</v>
+        <v>0.6238962899774315</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6524095789571456</v>
+        <v>0.641820388812876</v>
       </c>
     </row>
     <row r="115">
@@ -3069,22 +3069,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5768876693858193</v>
+        <v>0.6221828566825193</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4764640929353469</v>
+        <v>0.4772104347743747</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6114449074095613</v>
+        <v>0.545732246218144</v>
       </c>
       <c r="E115" t="n">
         <v>0.1810685369693951</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5052922876035508</v>
+        <v>0.5061018578187374</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5243083800157134</v>
+        <v>0.5498672060247355</v>
       </c>
     </row>
     <row r="116">
@@ -3092,22 +3092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5311083053309948</v>
+        <v>0.5394866728912544</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1896302556728068</v>
+        <v>0.1878907660639834</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3228674232353464</v>
+        <v>0.4234675286596481</v>
       </c>
       <c r="E116" t="n">
         <v>0.2940205150749525</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4792225319273802</v>
+        <v>0.482831907968563</v>
       </c>
       <c r="G116" t="n">
-        <v>0.527169366889144</v>
+        <v>0.5582091018270255</v>
       </c>
     </row>
     <row r="117">
@@ -3115,22 +3115,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5223077179080152</v>
+        <v>0.4822283834159114</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1660279261030929</v>
+        <v>0.1648254787638792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6154808853626692</v>
+        <v>0.5275043041440856</v>
       </c>
       <c r="E117" t="n">
         <v>0.4462639348573184</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6151926108477803</v>
+        <v>0.6103558271033225</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1276559506512003</v>
+        <v>0.2480670509161744</v>
       </c>
     </row>
     <row r="118">
@@ -3138,22 +3138,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6263145285380239</v>
+        <v>0.6457392806801798</v>
       </c>
       <c r="C118" t="n">
-        <v>0.478018001007387</v>
+        <v>0.479437634394747</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2527820780545416</v>
+        <v>0.4621226531553942</v>
       </c>
       <c r="E118" t="n">
         <v>0.7976744528457572</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6871881923133476</v>
+        <v>0.6783059802527885</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6995054356975041</v>
+        <v>0.6346092964496158</v>
       </c>
     </row>
     <row r="119">
@@ -3161,22 +3161,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5578308190499798</v>
+        <v>0.5419994445241869</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5272439694851855</v>
+        <v>0.527772558540093</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5579249685966752</v>
+        <v>0.564807011106475</v>
       </c>
       <c r="E119" t="n">
         <v>0.6131060162630924</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4982131073155963</v>
+        <v>0.5024203508881311</v>
       </c>
       <c r="G119" t="n">
-        <v>0.4328373466999308</v>
+        <v>0.4458178852020116</v>
       </c>
     </row>
     <row r="120">
@@ -3184,22 +3184,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5821668241109363</v>
+        <v>0.557656509929869</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4321024676956124</v>
+        <v>0.4325376334780786</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4182182091507757</v>
+        <v>0.6299920489411325</v>
       </c>
       <c r="E120" t="n">
         <v>0.5152578085207764</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4880564592823691</v>
+        <v>0.4918631805084014</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5011356949497577</v>
+        <v>0.4484346447634153</v>
       </c>
     </row>
     <row r="121">
@@ -3207,22 +3207,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5280414982857889</v>
+        <v>0.4530147098380171</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2080758783036781</v>
+        <v>0.2060444106773369</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7128821635220565</v>
+        <v>0.5977209081811745</v>
       </c>
       <c r="E121" t="n">
         <v>0.6279653935672939</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4414180085241408</v>
+        <v>0.4470313832158559</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3669722469493857</v>
+        <v>0.3759667132260718</v>
       </c>
     </row>
   </sheetData>
